--- a/rq2_results_table_10052022.xlsx
+++ b/rq2_results_table_10052022.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="309">
   <si>
     <t>FEATURES</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Babushkin</t>
-  </si>
-  <si>
-    <t>MODEL</t>
   </si>
   <si>
     <t>DATASET</t>
@@ -1471,6 +1468,12 @@
   </si>
   <si>
     <t>Aggregated AVG Ranking (TOP 10%)</t>
+  </si>
+  <si>
+    <t>MODEL (PFI iteration = 100)</t>
+  </si>
+  <si>
+    <t>MODEL (PFI iteration = 50)</t>
   </si>
 </sst>
 </file>
@@ -1760,22 +1763,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1783,6 +1780,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2118,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2149,51 +2152,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="25" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="25" t="s">
-        <v>307</v>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="23" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2206,11 +2209,11 @@
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="I2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="30"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="28"/>
       <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2223,11 +2226,11 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="Q2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="30"/>
+      <c r="O2" s="24"/>
+      <c r="Q2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="28"/>
       <c r="S2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2240,14 +2243,14 @@
       <c r="V2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="26"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3">
         <f>VLOOKUP(B3,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2269,11 +2272,11 @@
         <f t="shared" ref="G3:G34" si="0">AVERAGE(C3:F3)</f>
         <v>13</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K3" s="3">
         <f>VLOOKUP(J3,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2295,11 +2298,11 @@
         <f t="shared" ref="O3:O46" si="1">AVERAGE(K3:N3)</f>
         <v>26</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S3" s="3">
         <f>VLOOKUP(R3,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2323,9 +2326,9 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3">
         <f>VLOOKUP(B4,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2347,9 +2350,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K4" s="3">
         <f>VLOOKUP(J4,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2371,9 +2374,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S4" s="3">
         <f>VLOOKUP(R4,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2397,9 +2400,9 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="3">
         <f>VLOOKUP(B5,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2421,9 +2424,9 @@
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K5" s="3">
         <f>VLOOKUP(J5,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2445,9 +2448,9 @@
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="29"/>
       <c r="R5" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S5" s="3">
         <f>VLOOKUP(R5,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2471,9 +2474,9 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="3">
         <f>VLOOKUP(B6,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2495,9 +2498,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K6" s="3">
         <f>VLOOKUP(J6,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2519,9 +2522,9 @@
         <f t="shared" si="1"/>
         <v>40.75</v>
       </c>
-      <c r="Q6" s="23"/>
+      <c r="Q6" s="29"/>
       <c r="R6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S6" s="3">
         <f>VLOOKUP(R6,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2545,9 +2548,9 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="3">
         <f>VLOOKUP(B7,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2569,9 +2572,9 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K7" s="3">
         <f>VLOOKUP(J7,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2593,9 +2596,9 @@
         <f t="shared" si="1"/>
         <v>27.25</v>
       </c>
-      <c r="Q7" s="23"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S7" s="3">
         <f>VLOOKUP(R7,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2619,9 +2622,9 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="3">
         <f>VLOOKUP(B8,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2643,9 +2646,9 @@
         <f t="shared" si="0"/>
         <v>30.75</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K8" s="3">
         <f>VLOOKUP(J8,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2667,9 +2670,9 @@
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="Q8" s="23"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S8" s="3">
         <f>VLOOKUP(R8,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2693,9 +2696,9 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3">
         <f>VLOOKUP(B9,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2717,9 +2720,9 @@
         <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K9" s="3">
         <f>VLOOKUP(J9,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2741,9 +2744,9 @@
         <f t="shared" si="1"/>
         <v>16.25</v>
       </c>
-      <c r="Q9" s="23"/>
+      <c r="Q9" s="29"/>
       <c r="R9" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S9" s="3">
         <f>VLOOKUP(R9,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2767,9 +2770,9 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="3">
         <f>VLOOKUP(B10,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2791,9 +2794,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K10" s="3">
         <f>VLOOKUP(J10,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2815,9 +2818,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q10" s="23"/>
+      <c r="Q10" s="29"/>
       <c r="R10" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S10" s="3">
         <f>VLOOKUP(R10,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2841,9 +2844,9 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3">
         <f>VLOOKUP(B11,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2865,9 +2868,9 @@
         <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K11" s="3">
         <f>VLOOKUP(J11,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2889,9 +2892,9 @@
         <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
-      <c r="Q11" s="23"/>
+      <c r="Q11" s="29"/>
       <c r="R11" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S11" s="3">
         <f>VLOOKUP(R11,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2915,9 +2918,9 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="3">
         <f>VLOOKUP(B12,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -2939,9 +2942,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" s="3">
         <f>VLOOKUP(J12,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -2963,9 +2966,9 @@
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="Q12" s="23"/>
+      <c r="Q12" s="29"/>
       <c r="R12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S12" s="3">
         <f>VLOOKUP(R12,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -2989,9 +2992,9 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="3">
         <f>VLOOKUP(B13,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3013,9 +3016,9 @@
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K13" s="3">
         <f>VLOOKUP(J13,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3037,9 +3040,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="29"/>
       <c r="R13" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S13" s="3">
         <f>VLOOKUP(R13,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3063,9 +3066,9 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="3">
         <f>VLOOKUP(B14,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3087,9 +3090,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K14" s="3">
         <f>VLOOKUP(J14,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3111,9 +3114,9 @@
         <f t="shared" si="1"/>
         <v>11.75</v>
       </c>
-      <c r="Q14" s="23"/>
+      <c r="Q14" s="29"/>
       <c r="R14" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S14" s="3">
         <f>VLOOKUP(R14,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3137,9 +3140,9 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="3">
         <f>VLOOKUP(B15,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3161,9 +3164,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K15" s="3">
         <f>VLOOKUP(J15,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3185,9 +3188,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q15" s="23"/>
+      <c r="Q15" s="29"/>
       <c r="R15" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S15" s="3">
         <f>VLOOKUP(R15,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3211,9 +3214,9 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="3">
         <f>VLOOKUP(B16,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3235,9 +3238,9 @@
         <f t="shared" si="0"/>
         <v>23.75</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K16" s="3">
         <f>VLOOKUP(J16,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3259,9 +3262,9 @@
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="Q16" s="23"/>
+      <c r="Q16" s="29"/>
       <c r="R16" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S16" s="3">
         <f>VLOOKUP(R16,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3285,9 +3288,9 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="3">
         <f>VLOOKUP(B17,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3309,9 +3312,9 @@
         <f t="shared" si="0"/>
         <v>27.75</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K17" s="3">
         <f>VLOOKUP(J17,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3333,9 +3336,9 @@
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="Q17" s="23"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S17" s="3">
         <f>VLOOKUP(R17,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3359,9 +3362,9 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="3">
         <f>VLOOKUP(B18,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3383,9 +3386,9 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K18" s="3">
         <f>VLOOKUP(J18,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3407,9 +3410,9 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Q18" s="23"/>
+      <c r="Q18" s="29"/>
       <c r="R18" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S18" s="3">
         <f>VLOOKUP(R18,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3433,9 +3436,9 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="3">
         <f>VLOOKUP(B19,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3457,9 +3460,9 @@
         <f t="shared" si="0"/>
         <v>41.75</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K19" s="3">
         <f>VLOOKUP(J19,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3481,9 +3484,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="29"/>
       <c r="R19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S19" s="3">
         <f>VLOOKUP(R19,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3507,9 +3510,9 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3">
         <f>VLOOKUP(B20,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3531,9 +3534,9 @@
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K20" s="3">
         <f>VLOOKUP(J20,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3555,9 +3558,9 @@
         <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
-      <c r="Q20" s="23"/>
+      <c r="Q20" s="29"/>
       <c r="R20" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S20" s="3">
         <f>VLOOKUP(R20,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3581,9 +3584,9 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="3">
         <f>VLOOKUP(B21,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3605,9 +3608,9 @@
         <f t="shared" si="0"/>
         <v>28.5</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K21" s="3">
         <f>VLOOKUP(J21,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3629,9 +3632,9 @@
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
-      <c r="Q21" s="23"/>
+      <c r="Q21" s="29"/>
       <c r="R21" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S21" s="3">
         <f>VLOOKUP(R21,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3655,9 +3658,9 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="3">
         <f>VLOOKUP(B22,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3679,9 +3682,9 @@
         <f t="shared" si="0"/>
         <v>27.75</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K22" s="3">
         <f>VLOOKUP(J22,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3703,9 +3706,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q22" s="23"/>
+      <c r="Q22" s="29"/>
       <c r="R22" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S22" s="3">
         <f>VLOOKUP(R22,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3729,9 +3732,9 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="3">
         <f>VLOOKUP(B23,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3753,9 +3756,9 @@
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K23" s="3">
         <f>VLOOKUP(J23,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3777,9 +3780,9 @@
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="Q23" s="23"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S23" s="3">
         <f>VLOOKUP(R23,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3803,9 +3806,9 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="3">
         <f>VLOOKUP(B24,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3827,9 +3830,9 @@
         <f t="shared" si="0"/>
         <v>22.25</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K24" s="3">
         <f>VLOOKUP(J24,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3851,9 +3854,9 @@
         <f t="shared" si="1"/>
         <v>23.75</v>
       </c>
-      <c r="Q24" s="23"/>
+      <c r="Q24" s="29"/>
       <c r="R24" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S24" s="3">
         <f>VLOOKUP(R24,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3877,9 +3880,9 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" s="3">
         <f>VLOOKUP(B25,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3901,9 +3904,9 @@
         <f t="shared" si="0"/>
         <v>20.75</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="3">
         <f>VLOOKUP(J25,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3925,9 +3928,9 @@
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="Q25" s="23"/>
+      <c r="Q25" s="29"/>
       <c r="R25" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S25" s="3">
         <f>VLOOKUP(R25,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -3951,9 +3954,9 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="3">
         <f>VLOOKUP(B26,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -3975,9 +3978,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K26" s="3">
         <f>VLOOKUP(J26,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -3999,9 +4002,9 @@
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="Q26" s="23"/>
+      <c r="Q26" s="29"/>
       <c r="R26" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S26" s="3">
         <f>VLOOKUP(R26,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4025,9 +4028,9 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" s="3">
         <f>VLOOKUP(B27,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4049,9 +4052,9 @@
         <f t="shared" si="0"/>
         <v>33.25</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K27" s="3">
         <f>VLOOKUP(J27,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4073,9 +4076,9 @@
         <f t="shared" si="1"/>
         <v>21.25</v>
       </c>
-      <c r="Q27" s="23"/>
+      <c r="Q27" s="29"/>
       <c r="R27" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S27" s="3">
         <f>VLOOKUP(R27,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4099,9 +4102,9 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" s="3">
         <f>VLOOKUP(B28,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4123,9 +4126,9 @@
         <f t="shared" si="0"/>
         <v>26.75</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K28" s="3">
         <f>VLOOKUP(J28,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4147,9 +4150,9 @@
         <f t="shared" si="1"/>
         <v>13.75</v>
       </c>
-      <c r="Q28" s="23"/>
+      <c r="Q28" s="29"/>
       <c r="R28" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S28" s="3">
         <f>VLOOKUP(R28,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4173,9 +4176,9 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" s="3">
         <f>VLOOKUP(B29,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4197,9 +4200,9 @@
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K29" s="3">
         <f>VLOOKUP(J29,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4221,9 +4224,9 @@
         <f t="shared" si="1"/>
         <v>23.25</v>
       </c>
-      <c r="Q29" s="23"/>
+      <c r="Q29" s="29"/>
       <c r="R29" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S29" s="3">
         <f>VLOOKUP(R29,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4247,9 +4250,9 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3">
         <f>VLOOKUP(B30,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4271,9 +4274,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K30" s="3">
         <f>VLOOKUP(J30,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4295,9 +4298,9 @@
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="Q30" s="23"/>
+      <c r="Q30" s="29"/>
       <c r="R30" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S30" s="3">
         <f>VLOOKUP(R30,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4321,9 +4324,9 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" s="3">
         <f>VLOOKUP(B31,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4345,9 +4348,9 @@
         <f t="shared" si="0"/>
         <v>26.75</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" s="3">
         <f>VLOOKUP(J31,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4369,9 +4372,9 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="Q31" s="23"/>
+      <c r="Q31" s="29"/>
       <c r="R31" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S31" s="3">
         <f>VLOOKUP(R31,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4395,9 +4398,9 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="3">
         <f>VLOOKUP(B32,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4419,9 +4422,9 @@
         <f t="shared" si="0"/>
         <v>30.75</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K32" s="3">
         <f>VLOOKUP(J32,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4443,9 +4446,9 @@
         <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
-      <c r="Q32" s="23"/>
+      <c r="Q32" s="29"/>
       <c r="R32" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S32" s="3">
         <f>VLOOKUP(R32,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4469,9 +4472,9 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="3">
         <f>VLOOKUP(B33,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4493,9 +4496,9 @@
         <f t="shared" si="0"/>
         <v>30.75</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K33" s="3">
         <f>VLOOKUP(J33,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4517,9 +4520,9 @@
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="Q33" s="23"/>
+      <c r="Q33" s="29"/>
       <c r="R33" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S33" s="3">
         <f>VLOOKUP(R33,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4543,9 +4546,9 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="3">
         <f>VLOOKUP(B34,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4567,9 +4570,9 @@
         <f t="shared" si="0"/>
         <v>25.75</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K34" s="3">
         <f>VLOOKUP(J34,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4591,9 +4594,9 @@
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="Q34" s="23"/>
+      <c r="Q34" s="29"/>
       <c r="R34" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S34" s="3">
         <f>VLOOKUP(R34,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4617,9 +4620,9 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="3">
         <f>VLOOKUP(B35,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4638,12 +4641,12 @@
         <v>25</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" ref="G35:G66" si="3">AVERAGE(C35:F35)</f>
+        <f t="shared" ref="G35:G52" si="3">AVERAGE(C35:F35)</f>
         <v>12.5</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K35" s="3">
         <f>VLOOKUP(J35,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4665,9 +4668,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="23"/>
+      <c r="Q35" s="29"/>
       <c r="R35" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S35" s="3">
         <f>VLOOKUP(R35,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4691,9 +4694,9 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="3">
         <f>VLOOKUP(B36,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4715,9 +4718,9 @@
         <f t="shared" si="3"/>
         <v>28.5</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K36" s="3">
         <f>VLOOKUP(J36,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4739,9 +4742,9 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="Q36" s="23"/>
+      <c r="Q36" s="29"/>
       <c r="R36" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S36" s="3">
         <f>VLOOKUP(R36,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4765,9 +4768,9 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="3">
         <f>VLOOKUP(B37,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4789,9 +4792,9 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K37" s="3">
         <f>VLOOKUP(J37,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4813,9 +4816,9 @@
         <f t="shared" si="1"/>
         <v>24.75</v>
       </c>
-      <c r="Q37" s="23"/>
+      <c r="Q37" s="29"/>
       <c r="R37" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="3">
         <f>VLOOKUP(R37,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4839,9 +4842,9 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" s="3">
         <f>VLOOKUP(B38,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4863,9 +4866,9 @@
         <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K38" s="3">
         <f>VLOOKUP(J38,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4887,9 +4890,9 @@
         <f t="shared" si="1"/>
         <v>18.25</v>
       </c>
-      <c r="Q38" s="23"/>
+      <c r="Q38" s="29"/>
       <c r="R38" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S38" s="3">
         <f>VLOOKUP(R38,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4913,9 +4916,9 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="3">
         <f>VLOOKUP(B39,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -4937,9 +4940,9 @@
         <f t="shared" si="3"/>
         <v>27.5</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="29"/>
       <c r="J39" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K39" s="3">
         <f>VLOOKUP(J39,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -4961,9 +4964,9 @@
         <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
-      <c r="Q39" s="23"/>
+      <c r="Q39" s="29"/>
       <c r="R39" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S39" s="3">
         <f>VLOOKUP(R39,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -4987,9 +4990,9 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="3">
         <f>VLOOKUP(B40,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5011,9 +5014,9 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K40" s="3">
         <f>VLOOKUP(J40,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -5035,9 +5038,9 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q40" s="23"/>
+      <c r="Q40" s="29"/>
       <c r="R40" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S40" s="3">
         <f>VLOOKUP(R40,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5061,9 +5064,9 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" s="3">
         <f>VLOOKUP(B41,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5085,9 +5088,9 @@
         <f t="shared" si="3"/>
         <v>21.25</v>
       </c>
-      <c r="I41" s="23"/>
+      <c r="I41" s="29"/>
       <c r="J41" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K41" s="3">
         <f>VLOOKUP(J41,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -5109,9 +5112,9 @@
         <f t="shared" si="1"/>
         <v>13.75</v>
       </c>
-      <c r="Q41" s="23"/>
+      <c r="Q41" s="29"/>
       <c r="R41" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S41" s="3">
         <f>VLOOKUP(R41,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5135,9 +5138,9 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="3">
         <f>VLOOKUP(B42,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5159,9 +5162,9 @@
         <f t="shared" si="3"/>
         <v>39.25</v>
       </c>
-      <c r="I42" s="23"/>
+      <c r="I42" s="29"/>
       <c r="J42" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K42" s="3">
         <f>VLOOKUP(J42,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -5183,9 +5186,9 @@
         <f t="shared" si="1"/>
         <v>34.75</v>
       </c>
-      <c r="Q42" s="23"/>
+      <c r="Q42" s="29"/>
       <c r="R42" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S42" s="3">
         <f>VLOOKUP(R42,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5209,9 +5212,9 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C43" s="3">
         <f>VLOOKUP(B43,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5233,9 +5236,9 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K43" s="3">
         <f>VLOOKUP(J43,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -5257,9 +5260,9 @@
         <f t="shared" si="1"/>
         <v>23.75</v>
       </c>
-      <c r="Q43" s="23"/>
+      <c r="Q43" s="29"/>
       <c r="R43" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S43" s="3">
         <f>VLOOKUP(R43,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5283,9 +5286,9 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="3">
         <f>VLOOKUP(B44,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5307,9 +5310,9 @@
         <f t="shared" si="3"/>
         <v>25.25</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K44" s="3">
         <f>VLOOKUP(J44,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -5331,9 +5334,9 @@
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="Q44" s="23"/>
+      <c r="Q44" s="29"/>
       <c r="R44" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S44" s="3">
         <f>VLOOKUP(R44,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5357,9 +5360,9 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="3">
         <f>VLOOKUP(B45,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5381,9 +5384,9 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" s="3">
         <f>VLOOKUP(J45,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -5405,9 +5408,9 @@
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="Q45" s="23"/>
+      <c r="Q45" s="29"/>
       <c r="R45" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S45" s="3">
         <f>VLOOKUP(R45,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5431,9 +5434,9 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="3">
         <f>VLOOKUP(B46,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5455,9 +5458,9 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="I46" s="24"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K46" s="5">
         <f>VLOOKUP(J46,ibm_data!$A$2:$B$45,2,FALSE)</f>
@@ -5479,9 +5482,9 @@
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="Q46" s="23"/>
+      <c r="Q46" s="29"/>
       <c r="R46" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S46" s="3">
         <f>VLOOKUP(R46,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5505,9 +5508,9 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C47" s="3">
         <f>VLOOKUP(B47,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5529,9 +5532,9 @@
         <f t="shared" si="3"/>
         <v>28.75</v>
       </c>
-      <c r="Q47" s="23"/>
+      <c r="Q47" s="29"/>
       <c r="R47" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S47" s="3">
         <f>VLOOKUP(R47,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5555,9 +5558,9 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C48" s="3">
         <f>VLOOKUP(B48,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5579,9 +5582,9 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="Q48" s="23"/>
+      <c r="Q48" s="29"/>
       <c r="R48" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S48" s="3">
         <f>VLOOKUP(R48,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5605,9 +5608,9 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" s="3">
         <f>VLOOKUP(B49,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5629,9 +5632,9 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="Q49" s="23"/>
+      <c r="Q49" s="29"/>
       <c r="R49" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S49" s="3">
         <f>VLOOKUP(R49,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5655,9 +5658,9 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" s="3">
         <f>VLOOKUP(B50,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5679,9 +5682,9 @@
         <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
-      <c r="Q50" s="23"/>
+      <c r="Q50" s="29"/>
       <c r="R50" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S50" s="3">
         <f>VLOOKUP(R50,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5705,9 +5708,9 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C51" s="3">
         <f>VLOOKUP(B51,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5729,9 +5732,9 @@
         <f t="shared" si="3"/>
         <v>25.75</v>
       </c>
-      <c r="Q51" s="23"/>
+      <c r="Q51" s="29"/>
       <c r="R51" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S51" s="3">
         <f>VLOOKUP(R51,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5755,9 +5758,9 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(B52,b_data!$A$2:$B$51,2,FALSE)</f>
@@ -5779,9 +5782,9 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="Q52" s="23"/>
+      <c r="Q52" s="29"/>
       <c r="R52" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S52" s="3">
         <f>VLOOKUP(R52,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5805,9 +5808,9 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="Q53" s="23"/>
+      <c r="Q53" s="29"/>
       <c r="R53" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S53" s="3">
         <f>VLOOKUP(R53,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5831,9 +5834,9 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q54" s="23"/>
+      <c r="Q54" s="29"/>
       <c r="R54" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S54" s="3">
         <f>VLOOKUP(R54,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5857,9 +5860,9 @@
       </c>
     </row>
     <row r="55" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q55" s="23"/>
+      <c r="Q55" s="29"/>
       <c r="R55" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S55" s="3">
         <f>VLOOKUP(R55,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5883,9 +5886,9 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q56" s="23"/>
+      <c r="Q56" s="29"/>
       <c r="R56" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S56" s="3">
         <f>VLOOKUP(R56,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5909,9 +5912,9 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q57" s="23"/>
+      <c r="Q57" s="29"/>
       <c r="R57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S57" s="3">
         <f>VLOOKUP(R57,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5935,9 +5938,9 @@
       </c>
     </row>
     <row r="58" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q58" s="23"/>
+      <c r="Q58" s="29"/>
       <c r="R58" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S58" s="3">
         <f>VLOOKUP(R58,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5961,9 +5964,9 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q59" s="23"/>
+      <c r="Q59" s="29"/>
       <c r="R59" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S59" s="3">
         <f>VLOOKUP(R59,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -5987,9 +5990,9 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q60" s="23"/>
+      <c r="Q60" s="29"/>
       <c r="R60" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S60" s="3">
         <f>VLOOKUP(R60,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6013,9 +6016,9 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q61" s="23"/>
+      <c r="Q61" s="29"/>
       <c r="R61" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S61" s="3">
         <f>VLOOKUP(R61,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6039,9 +6042,9 @@
       </c>
     </row>
     <row r="62" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q62" s="23"/>
+      <c r="Q62" s="29"/>
       <c r="R62" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S62" s="3">
         <f>VLOOKUP(R62,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6065,9 +6068,9 @@
       </c>
     </row>
     <row r="63" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q63" s="23"/>
+      <c r="Q63" s="29"/>
       <c r="R63" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S63" s="3">
         <f>VLOOKUP(R63,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6091,9 +6094,9 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q64" s="23"/>
+      <c r="Q64" s="29"/>
       <c r="R64" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S64" s="3">
         <f>VLOOKUP(R64,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6117,9 +6120,9 @@
       </c>
     </row>
     <row r="65" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q65" s="23"/>
+      <c r="Q65" s="29"/>
       <c r="R65" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S65" s="3">
         <f>VLOOKUP(R65,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6143,9 +6146,9 @@
       </c>
     </row>
     <row r="66" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q66" s="23"/>
+      <c r="Q66" s="29"/>
       <c r="R66" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S66" s="3">
         <f>VLOOKUP(R66,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6169,9 +6172,9 @@
       </c>
     </row>
     <row r="67" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q67" s="23"/>
+      <c r="Q67" s="29"/>
       <c r="R67" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S67" s="3">
         <f>VLOOKUP(R67,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6195,9 +6198,9 @@
       </c>
     </row>
     <row r="68" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q68" s="23"/>
+      <c r="Q68" s="29"/>
       <c r="R68" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S68" s="3">
         <f>VLOOKUP(R68,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6221,9 +6224,9 @@
       </c>
     </row>
     <row r="69" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q69" s="23"/>
+      <c r="Q69" s="29"/>
       <c r="R69" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S69" s="3">
         <f>VLOOKUP(R69,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6247,9 +6250,9 @@
       </c>
     </row>
     <row r="70" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q70" s="23"/>
+      <c r="Q70" s="29"/>
       <c r="R70" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S70" s="3">
         <f>VLOOKUP(R70,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6273,9 +6276,9 @@
       </c>
     </row>
     <row r="71" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q71" s="23"/>
+      <c r="Q71" s="29"/>
       <c r="R71" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S71" s="3">
         <f>VLOOKUP(R71,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6299,9 +6302,9 @@
       </c>
     </row>
     <row r="72" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q72" s="23"/>
+      <c r="Q72" s="29"/>
       <c r="R72" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S72" s="3">
         <f>VLOOKUP(R72,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6325,9 +6328,9 @@
       </c>
     </row>
     <row r="73" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q73" s="23"/>
+      <c r="Q73" s="29"/>
       <c r="R73" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S73" s="3">
         <f>VLOOKUP(R73,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6351,9 +6354,9 @@
       </c>
     </row>
     <row r="74" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q74" s="23"/>
+      <c r="Q74" s="29"/>
       <c r="R74" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S74" s="3">
         <f>VLOOKUP(R74,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6377,9 +6380,9 @@
       </c>
     </row>
     <row r="75" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q75" s="23"/>
+      <c r="Q75" s="29"/>
       <c r="R75" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S75" s="3">
         <f>VLOOKUP(R75,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6403,9 +6406,9 @@
       </c>
     </row>
     <row r="76" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q76" s="23"/>
+      <c r="Q76" s="29"/>
       <c r="R76" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S76" s="3">
         <f>VLOOKUP(R76,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6429,9 +6432,9 @@
       </c>
     </row>
     <row r="77" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q77" s="23"/>
+      <c r="Q77" s="29"/>
       <c r="R77" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S77" s="3">
         <f>VLOOKUP(R77,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6455,9 +6458,9 @@
       </c>
     </row>
     <row r="78" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q78" s="23"/>
+      <c r="Q78" s="29"/>
       <c r="R78" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S78" s="3">
         <f>VLOOKUP(R78,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6481,9 +6484,9 @@
       </c>
     </row>
     <row r="79" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q79" s="23"/>
+      <c r="Q79" s="29"/>
       <c r="R79" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S79" s="3">
         <f>VLOOKUP(R79,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6507,9 +6510,9 @@
       </c>
     </row>
     <row r="80" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q80" s="23"/>
+      <c r="Q80" s="29"/>
       <c r="R80" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S80" s="3">
         <f>VLOOKUP(R80,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6533,9 +6536,9 @@
       </c>
     </row>
     <row r="81" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q81" s="23"/>
+      <c r="Q81" s="29"/>
       <c r="R81" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S81" s="3">
         <f>VLOOKUP(R81,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6559,9 +6562,9 @@
       </c>
     </row>
     <row r="82" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q82" s="23"/>
+      <c r="Q82" s="29"/>
       <c r="R82" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S82" s="3">
         <f>VLOOKUP(R82,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6585,9 +6588,9 @@
       </c>
     </row>
     <row r="83" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q83" s="23"/>
+      <c r="Q83" s="29"/>
       <c r="R83" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S83" s="3">
         <f>VLOOKUP(R83,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6611,9 +6614,9 @@
       </c>
     </row>
     <row r="84" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q84" s="23"/>
+      <c r="Q84" s="29"/>
       <c r="R84" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S84" s="3">
         <f>VLOOKUP(R84,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6637,9 +6640,9 @@
       </c>
     </row>
     <row r="85" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q85" s="23"/>
+      <c r="Q85" s="29"/>
       <c r="R85" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S85" s="3">
         <f>VLOOKUP(R85,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6663,9 +6666,9 @@
       </c>
     </row>
     <row r="86" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q86" s="23"/>
+      <c r="Q86" s="29"/>
       <c r="R86" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S86" s="3">
         <f>VLOOKUP(R86,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6689,9 +6692,9 @@
       </c>
     </row>
     <row r="87" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q87" s="23"/>
+      <c r="Q87" s="29"/>
       <c r="R87" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S87" s="3">
         <f>VLOOKUP(R87,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6715,9 +6718,9 @@
       </c>
     </row>
     <row r="88" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q88" s="23"/>
+      <c r="Q88" s="29"/>
       <c r="R88" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S88" s="3">
         <f>VLOOKUP(R88,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6741,9 +6744,9 @@
       </c>
     </row>
     <row r="89" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q89" s="23"/>
+      <c r="Q89" s="29"/>
       <c r="R89" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S89" s="3">
         <f>VLOOKUP(R89,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6767,9 +6770,9 @@
       </c>
     </row>
     <row r="90" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q90" s="23"/>
+      <c r="Q90" s="29"/>
       <c r="R90" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S90" s="3">
         <f>VLOOKUP(R90,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6793,9 +6796,9 @@
       </c>
     </row>
     <row r="91" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q91" s="23"/>
+      <c r="Q91" s="29"/>
       <c r="R91" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S91" s="3">
         <f>VLOOKUP(R91,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6819,9 +6822,9 @@
       </c>
     </row>
     <row r="92" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q92" s="23"/>
+      <c r="Q92" s="29"/>
       <c r="R92" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S92" s="3">
         <f>VLOOKUP(R92,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6845,9 +6848,9 @@
       </c>
     </row>
     <row r="93" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q93" s="23"/>
+      <c r="Q93" s="29"/>
       <c r="R93" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S93" s="3">
         <f>VLOOKUP(R93,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6871,9 +6874,9 @@
       </c>
     </row>
     <row r="94" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q94" s="23"/>
+      <c r="Q94" s="29"/>
       <c r="R94" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S94" s="3">
         <f>VLOOKUP(R94,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6897,9 +6900,9 @@
       </c>
     </row>
     <row r="95" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q95" s="23"/>
+      <c r="Q95" s="29"/>
       <c r="R95" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S95" s="3">
         <f>VLOOKUP(R95,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6923,9 +6926,9 @@
       </c>
     </row>
     <row r="96" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q96" s="23"/>
+      <c r="Q96" s="29"/>
       <c r="R96" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S96" s="3">
         <f>VLOOKUP(R96,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6949,9 +6952,9 @@
       </c>
     </row>
     <row r="97" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q97" s="23"/>
+      <c r="Q97" s="29"/>
       <c r="R97" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S97" s="3">
         <f>VLOOKUP(R97,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -6975,9 +6978,9 @@
       </c>
     </row>
     <row r="98" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q98" s="23"/>
+      <c r="Q98" s="29"/>
       <c r="R98" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S98" s="3">
         <f>VLOOKUP(R98,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7001,9 +7004,9 @@
       </c>
     </row>
     <row r="99" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q99" s="23"/>
+      <c r="Q99" s="29"/>
       <c r="R99" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S99" s="3">
         <f>VLOOKUP(R99,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7027,9 +7030,9 @@
       </c>
     </row>
     <row r="100" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q100" s="23"/>
+      <c r="Q100" s="29"/>
       <c r="R100" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S100" s="3">
         <f>VLOOKUP(R100,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7053,9 +7056,9 @@
       </c>
     </row>
     <row r="101" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q101" s="23"/>
+      <c r="Q101" s="29"/>
       <c r="R101" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S101" s="3">
         <f>VLOOKUP(R101,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7079,9 +7082,9 @@
       </c>
     </row>
     <row r="102" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q102" s="23"/>
+      <c r="Q102" s="29"/>
       <c r="R102" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S102" s="3">
         <f>VLOOKUP(R102,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7105,9 +7108,9 @@
       </c>
     </row>
     <row r="103" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q103" s="23"/>
+      <c r="Q103" s="29"/>
       <c r="R103" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S103" s="3">
         <f>VLOOKUP(R103,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7131,9 +7134,9 @@
       </c>
     </row>
     <row r="104" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q104" s="23"/>
+      <c r="Q104" s="29"/>
       <c r="R104" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S104" s="3">
         <f>VLOOKUP(R104,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7157,9 +7160,9 @@
       </c>
     </row>
     <row r="105" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q105" s="23"/>
+      <c r="Q105" s="29"/>
       <c r="R105" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S105" s="3">
         <f>VLOOKUP(R105,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7183,9 +7186,9 @@
       </c>
     </row>
     <row r="106" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q106" s="23"/>
+      <c r="Q106" s="29"/>
       <c r="R106" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S106" s="3">
         <f>VLOOKUP(R106,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7209,9 +7212,9 @@
       </c>
     </row>
     <row r="107" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q107" s="23"/>
+      <c r="Q107" s="29"/>
       <c r="R107" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S107" s="3">
         <f>VLOOKUP(R107,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7235,9 +7238,9 @@
       </c>
     </row>
     <row r="108" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q108" s="23"/>
+      <c r="Q108" s="29"/>
       <c r="R108" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S108" s="3">
         <f>VLOOKUP(R108,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7261,9 +7264,9 @@
       </c>
     </row>
     <row r="109" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q109" s="23"/>
+      <c r="Q109" s="29"/>
       <c r="R109" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S109" s="3">
         <f>VLOOKUP(R109,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7287,9 +7290,9 @@
       </c>
     </row>
     <row r="110" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q110" s="23"/>
+      <c r="Q110" s="29"/>
       <c r="R110" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S110" s="3">
         <f>VLOOKUP(R110,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7313,9 +7316,9 @@
       </c>
     </row>
     <row r="111" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q111" s="23"/>
+      <c r="Q111" s="29"/>
       <c r="R111" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S111" s="3">
         <f>VLOOKUP(R111,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7339,9 +7342,9 @@
       </c>
     </row>
     <row r="112" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q112" s="23"/>
+      <c r="Q112" s="29"/>
       <c r="R112" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S112" s="3">
         <f>VLOOKUP(R112,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7365,9 +7368,9 @@
       </c>
     </row>
     <row r="113" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q113" s="23"/>
+      <c r="Q113" s="29"/>
       <c r="R113" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S113" s="3">
         <f>VLOOKUP(R113,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7391,9 +7394,9 @@
       </c>
     </row>
     <row r="114" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q114" s="23"/>
+      <c r="Q114" s="29"/>
       <c r="R114" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S114" s="3">
         <f>VLOOKUP(R114,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7417,9 +7420,9 @@
       </c>
     </row>
     <row r="115" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q115" s="23"/>
+      <c r="Q115" s="29"/>
       <c r="R115" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S115" s="3">
         <f>VLOOKUP(R115,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7443,9 +7446,9 @@
       </c>
     </row>
     <row r="116" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q116" s="23"/>
+      <c r="Q116" s="29"/>
       <c r="R116" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S116" s="3">
         <f>VLOOKUP(R116,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7469,9 +7472,9 @@
       </c>
     </row>
     <row r="117" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q117" s="23"/>
+      <c r="Q117" s="29"/>
       <c r="R117" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S117" s="3">
         <f>VLOOKUP(R117,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7495,9 +7498,9 @@
       </c>
     </row>
     <row r="118" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q118" s="23"/>
+      <c r="Q118" s="29"/>
       <c r="R118" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S118" s="3">
         <f>VLOOKUP(R118,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7521,9 +7524,9 @@
       </c>
     </row>
     <row r="119" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q119" s="23"/>
+      <c r="Q119" s="29"/>
       <c r="R119" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S119" s="3">
         <f>VLOOKUP(R119,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7547,9 +7550,9 @@
       </c>
     </row>
     <row r="120" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q120" s="23"/>
+      <c r="Q120" s="29"/>
       <c r="R120" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S120" s="3">
         <f>VLOOKUP(R120,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7573,9 +7576,9 @@
       </c>
     </row>
     <row r="121" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q121" s="23"/>
+      <c r="Q121" s="29"/>
       <c r="R121" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S121" s="3">
         <f>VLOOKUP(R121,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7599,9 +7602,9 @@
       </c>
     </row>
     <row r="122" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q122" s="23"/>
+      <c r="Q122" s="29"/>
       <c r="R122" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S122" s="3">
         <f>VLOOKUP(R122,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7625,9 +7628,9 @@
       </c>
     </row>
     <row r="123" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q123" s="23"/>
+      <c r="Q123" s="29"/>
       <c r="R123" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S123" s="3">
         <f>VLOOKUP(R123,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7651,9 +7654,9 @@
       </c>
     </row>
     <row r="124" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q124" s="23"/>
+      <c r="Q124" s="29"/>
       <c r="R124" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S124" s="3">
         <f>VLOOKUP(R124,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7677,9 +7680,9 @@
       </c>
     </row>
     <row r="125" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q125" s="23"/>
+      <c r="Q125" s="29"/>
       <c r="R125" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S125" s="3">
         <f>VLOOKUP(R125,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7703,9 +7706,9 @@
       </c>
     </row>
     <row r="126" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q126" s="23"/>
+      <c r="Q126" s="29"/>
       <c r="R126" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S126" s="3">
         <f>VLOOKUP(R126,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7729,9 +7732,9 @@
       </c>
     </row>
     <row r="127" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q127" s="23"/>
+      <c r="Q127" s="29"/>
       <c r="R127" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S127" s="3">
         <f>VLOOKUP(R127,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7755,9 +7758,9 @@
       </c>
     </row>
     <row r="128" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q128" s="23"/>
+      <c r="Q128" s="29"/>
       <c r="R128" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S128" s="3">
         <f>VLOOKUP(R128,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7781,9 +7784,9 @@
       </c>
     </row>
     <row r="129" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q129" s="23"/>
+      <c r="Q129" s="29"/>
       <c r="R129" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S129" s="3">
         <f>VLOOKUP(R129,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7807,9 +7810,9 @@
       </c>
     </row>
     <row r="130" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q130" s="23"/>
+      <c r="Q130" s="29"/>
       <c r="R130" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S130" s="3">
         <f>VLOOKUP(R130,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7833,9 +7836,9 @@
       </c>
     </row>
     <row r="131" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q131" s="23"/>
+      <c r="Q131" s="29"/>
       <c r="R131" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S131" s="3">
         <f>VLOOKUP(R131,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7854,14 +7857,14 @@
         <v>40</v>
       </c>
       <c r="W131" s="4">
-        <f t="shared" ref="W131:W162" si="7">AVERAGE(S131:V131)</f>
+        <f t="shared" ref="W131" si="7">AVERAGE(S131:V131)</f>
         <v>22</v>
       </c>
     </row>
     <row r="132" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q132" s="23"/>
+      <c r="Q132" s="29"/>
       <c r="R132" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S132" s="3">
         <f>VLOOKUP(R132,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7885,9 +7888,9 @@
       </c>
     </row>
     <row r="133" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q133" s="23"/>
+      <c r="Q133" s="29"/>
       <c r="R133" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S133" s="3">
         <f>VLOOKUP(R133,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7911,9 +7914,9 @@
       </c>
     </row>
     <row r="134" spans="17:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q134" s="23"/>
+      <c r="Q134" s="29"/>
       <c r="R134" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S134" s="3">
         <f>VLOOKUP(R134,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7937,9 +7940,9 @@
       </c>
     </row>
     <row r="135" spans="17:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q135" s="24"/>
+      <c r="Q135" s="30"/>
       <c r="R135" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S135" s="5">
         <f>VLOOKUP(R135,h_data!$A$2:$B$134,2,FALSE)</f>
@@ -7965,11 +7968,6 @@
     <row r="136" spans="17:23" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:Q135"/>
     <mergeCell ref="A3:A52"/>
     <mergeCell ref="I3:I46"/>
     <mergeCell ref="G1:G2"/>
@@ -7980,6 +7978,11 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:Q135"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G52">
     <cfRule type="top10" dxfId="5" priority="8" percent="1" bottom="1" rank="10"/>
@@ -8068,39 +8071,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>205</v>
-      </c>
       <c r="H1" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H2" s="19">
         <v>1</v>
@@ -8108,25 +8111,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="19">
         <v>2</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="19">
         <v>2</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H3" s="19">
         <v>2</v>
@@ -8134,25 +8137,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="19">
         <v>3</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D4" s="19">
         <v>3</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="19">
         <v>3</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H4" s="19">
         <v>3</v>
@@ -8160,25 +8163,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="19">
         <v>4</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="19">
         <v>4</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" s="19">
         <v>4</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H5" s="19">
         <v>4</v>
@@ -8186,25 +8189,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" s="19">
         <v>5</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6" s="19">
         <v>5</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F6" s="19">
         <v>5</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="19">
         <v>5</v>
@@ -8212,25 +8215,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="19">
         <v>6</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="19">
         <v>6</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" s="19">
         <v>6</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" s="19">
         <v>6</v>
@@ -8238,25 +8241,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="19">
         <v>7</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="19">
         <v>7</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F8" s="19">
         <v>7</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H8" s="19">
         <v>7</v>
@@ -8264,25 +8267,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="19">
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="19">
         <v>8</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F9" s="19">
         <v>8</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H9" s="19">
         <v>8</v>
@@ -8290,25 +8293,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="19">
         <v>9</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="19">
         <v>9</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F10" s="19">
         <v>9</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H10" s="19">
         <v>9</v>
@@ -8316,25 +8319,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="19">
         <v>10</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="19">
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="19">
         <v>10</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H11" s="19">
         <v>10</v>
@@ -8342,25 +8345,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="19">
         <v>11</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="19">
         <v>11</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F12" s="19">
         <v>11</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H12" s="19">
         <v>11</v>
@@ -8368,25 +8371,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" s="19">
         <v>12</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13" s="19">
         <v>12</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="19">
         <v>12</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H13" s="19">
         <v>12</v>
@@ -8394,25 +8397,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="19">
         <v>13</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="19">
         <v>13</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="19">
         <v>13</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H14" s="19">
         <v>13</v>
@@ -8420,25 +8423,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15" s="19">
         <v>14</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D15" s="19">
         <v>14</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F15" s="19">
         <v>14</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H15" s="19">
         <v>14</v>
@@ -8446,25 +8449,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="19">
         <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="19">
         <v>15</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F16" s="19">
         <v>15</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H16" s="19">
         <v>15</v>
@@ -8472,25 +8475,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="19">
         <v>16</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" s="19">
         <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="19">
         <v>16</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H17" s="19">
         <v>16</v>
@@ -8498,25 +8501,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" s="19">
         <v>17</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" s="19">
         <v>17</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="19">
         <v>17</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H18" s="19">
         <v>17</v>
@@ -8524,25 +8527,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="19">
         <v>18</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="19">
         <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="19">
         <v>18</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H19" s="19">
         <v>18</v>
@@ -8550,25 +8553,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="19">
         <v>19</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D20" s="19">
         <v>19</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F20" s="19">
         <v>19</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H20" s="19">
         <v>19</v>
@@ -8576,25 +8579,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B21" s="19">
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" s="19">
         <v>20</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F21" s="19">
         <v>20</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H21" s="19">
         <v>20</v>
@@ -8602,25 +8605,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B22" s="19">
         <v>21</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="19">
         <v>21</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F22" s="19">
         <v>21</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H22" s="19">
         <v>21</v>
@@ -8628,25 +8631,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" s="19">
         <v>22</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D23" s="19">
         <v>22</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F23" s="19">
         <v>22</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H23" s="19">
         <v>22</v>
@@ -8654,25 +8657,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B24" s="19">
         <v>23</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D24" s="19">
         <v>23</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F24" s="19">
         <v>23</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H24" s="19">
         <v>23</v>
@@ -8680,25 +8683,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B25" s="19">
         <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D25" s="19">
         <v>24</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F25" s="19">
         <v>24</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H25" s="19">
         <v>24</v>
@@ -8706,25 +8709,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B26" s="19">
         <v>25</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="19">
         <v>25</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F26" s="19">
         <v>25</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H26" s="19">
         <v>25</v>
@@ -8732,25 +8735,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="19">
         <v>26</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" s="19">
         <v>26</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F27" s="19">
         <v>26</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H27" s="19">
         <v>26</v>
@@ -8758,25 +8761,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B28" s="19">
         <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D28" s="19">
         <v>27</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F28" s="19">
         <v>27</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H28" s="19">
         <v>27</v>
@@ -8784,25 +8787,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="19">
         <v>28</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D29" s="19">
         <v>28</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F29" s="19">
         <v>28</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H29" s="19">
         <v>28</v>
@@ -8810,25 +8813,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="19">
         <v>29</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D30" s="19">
         <v>29</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F30" s="19">
         <v>29</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H30" s="19">
         <v>29</v>
@@ -8836,25 +8839,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" s="19">
         <v>30</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D31" s="19">
         <v>30</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F31" s="19">
         <v>30</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H31" s="19">
         <v>30</v>
@@ -8862,25 +8865,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="19">
         <v>31</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32" s="19">
         <v>31</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F32" s="19">
         <v>31</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H32" s="19">
         <v>31</v>
@@ -8888,25 +8891,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" s="19">
         <v>32</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D33" s="19">
         <v>32</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F33" s="19">
         <v>32</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H33" s="19">
         <v>32</v>
@@ -8914,25 +8917,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34" s="19">
         <v>33</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D34" s="19">
         <v>33</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F34" s="19">
         <v>33</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H34" s="19">
         <v>33</v>
@@ -8940,25 +8943,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="19">
         <v>34</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D35" s="19">
         <v>34</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F35" s="19">
         <v>34</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H35" s="19">
         <v>34</v>
@@ -8966,25 +8969,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="19">
         <v>35</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D36" s="19">
         <v>35</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F36" s="19">
         <v>35</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H36" s="19">
         <v>35</v>
@@ -8992,25 +8995,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" s="19">
         <v>36</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D37" s="19">
         <v>36</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F37" s="19">
         <v>36</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H37" s="19">
         <v>36</v>
@@ -9018,25 +9021,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="19">
         <v>37</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="19">
         <v>37</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F38" s="19">
         <v>37</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H38" s="19">
         <v>37</v>
@@ -9044,25 +9047,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B39" s="19">
         <v>38</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="19">
         <v>38</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F39" s="19">
         <v>38</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H39" s="19">
         <v>38</v>
@@ -9070,25 +9073,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B40" s="19">
         <v>39</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D40" s="19">
         <v>39</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F40" s="19">
         <v>39</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H40" s="19">
         <v>39</v>
@@ -9096,25 +9099,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" s="19">
         <v>40</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D41" s="19">
         <v>40</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F41" s="19">
         <v>40</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H41" s="19">
         <v>40</v>
@@ -9122,25 +9125,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="19">
         <v>41</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D42" s="19">
         <v>41</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F42" s="19">
         <v>41</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H42" s="19">
         <v>41</v>
@@ -9148,25 +9151,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" s="19">
         <v>42</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="19">
         <v>42</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F43" s="19">
         <v>42</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H43" s="19">
         <v>42</v>
@@ -9174,25 +9177,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" s="19">
         <v>43</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="19">
         <v>43</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F44" s="19">
         <v>43</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H44" s="19">
         <v>43</v>
@@ -9200,25 +9203,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B45" s="19">
         <v>44</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" s="19">
         <v>44</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F45" s="19">
         <v>44</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H45" s="19">
         <v>44</v>
@@ -9226,25 +9229,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="19">
         <v>45</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D46" s="19">
         <v>45</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F46" s="19">
         <v>45</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H46" s="19">
         <v>45</v>
@@ -9252,25 +9255,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47" s="19">
         <v>46</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D47" s="19">
         <v>46</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F47" s="19">
         <v>46</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H47" s="19">
         <v>46</v>
@@ -9278,25 +9281,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B48" s="19">
         <v>47</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D48" s="19">
         <v>47</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F48" s="19">
         <v>47</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H48" s="19">
         <v>47</v>
@@ -9304,25 +9307,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="19">
         <v>48</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D49" s="19">
         <v>48</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F49" s="19">
         <v>48</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H49" s="19">
         <v>48</v>
@@ -9330,25 +9333,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B50" s="19">
         <v>49</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D50" s="19">
         <v>49</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F50" s="19">
         <v>49</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H50" s="19">
         <v>49</v>
@@ -9356,25 +9359,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B51" s="19">
         <v>50</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D51" s="19">
         <v>50</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F51" s="19">
         <v>50</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H51" s="19">
         <v>50</v>
@@ -9408,39 +9411,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H2" s="19">
         <v>1</v>
@@ -9448,25 +9451,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="19">
         <v>2</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="19">
         <v>2</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="19">
         <v>2</v>
@@ -9474,25 +9477,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="19">
         <v>3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="19">
         <v>3</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="19">
         <v>3</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="19">
         <v>3</v>
@@ -9500,25 +9503,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="19">
         <v>4</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="19">
         <v>4</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="19">
         <v>4</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H5" s="19">
         <v>4</v>
@@ -9526,25 +9529,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="19">
         <v>5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="19">
         <v>5</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="19">
         <v>5</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="19">
         <v>5</v>
@@ -9552,25 +9555,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="19">
         <v>6</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="19">
         <v>6</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="19">
         <v>6</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" s="19">
         <v>6</v>
@@ -9578,25 +9581,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="19">
         <v>7</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" s="19">
         <v>7</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="19">
         <v>7</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" s="19">
         <v>7</v>
@@ -9604,25 +9607,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="19">
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="19">
         <v>8</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="19">
         <v>8</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H9" s="19">
         <v>8</v>
@@ -9630,25 +9633,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="19">
         <v>9</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="19">
         <v>9</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F10" s="19">
         <v>9</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="19">
         <v>9</v>
@@ -9656,25 +9659,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" s="19">
         <v>10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="19">
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="19">
         <v>10</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H11" s="19">
         <v>10</v>
@@ -9682,25 +9685,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="19">
         <v>11</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="19">
         <v>11</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="19">
         <v>11</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="19">
         <v>11</v>
@@ -9708,25 +9711,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="19">
         <v>12</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13" s="19">
         <v>12</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" s="19">
         <v>12</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="19">
         <v>12</v>
@@ -9734,25 +9737,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" s="19">
         <v>13</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="19">
         <v>13</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F14" s="19">
         <v>13</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="19">
         <v>13</v>
@@ -9760,25 +9763,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="19">
         <v>14</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="19">
         <v>14</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="19">
         <v>14</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="19">
         <v>14</v>
@@ -9786,25 +9789,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16" s="19">
         <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="19">
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="19">
         <v>15</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H16" s="19">
         <v>15</v>
@@ -9812,25 +9815,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B17" s="19">
         <v>16</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D17" s="19">
         <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="19">
         <v>16</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H17" s="19">
         <v>16</v>
@@ -9838,25 +9841,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="19">
         <v>17</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="19">
         <v>17</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="19">
         <v>17</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H18" s="19">
         <v>17</v>
@@ -9864,25 +9867,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="19">
         <v>18</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="19">
         <v>18</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" s="19">
         <v>18</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H19" s="19">
         <v>18</v>
@@ -9890,25 +9893,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="19">
         <v>19</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" s="19">
         <v>19</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="19">
         <v>19</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="19">
         <v>19</v>
@@ -9916,25 +9919,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B21" s="19">
         <v>20</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="19">
         <v>20</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="19">
         <v>20</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H21" s="19">
         <v>20</v>
@@ -9942,25 +9945,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22" s="19">
         <v>21</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" s="19">
         <v>21</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="19">
         <v>21</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H22" s="19">
         <v>21</v>
@@ -9968,25 +9971,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="19">
         <v>22</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="19">
         <v>22</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F23" s="19">
         <v>22</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H23" s="19">
         <v>22</v>
@@ -9994,25 +9997,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B24" s="19">
         <v>23</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="19">
         <v>23</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F24" s="19">
         <v>23</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H24" s="19">
         <v>23</v>
@@ -10020,25 +10023,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="19">
         <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25" s="19">
         <v>24</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F25" s="19">
         <v>24</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H25" s="19">
         <v>24</v>
@@ -10046,25 +10049,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" s="19">
         <v>25</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="19">
         <v>25</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26" s="19">
         <v>25</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H26" s="19">
         <v>25</v>
@@ -10072,25 +10075,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="19">
         <v>26</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27" s="19">
         <v>26</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F27" s="19">
         <v>26</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H27" s="19">
         <v>26</v>
@@ -10098,25 +10101,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="19">
         <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D28" s="19">
         <v>27</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="19">
         <v>27</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H28" s="19">
         <v>27</v>
@@ -10124,25 +10127,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="19">
         <v>28</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="19">
         <v>28</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="19">
         <v>28</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H29" s="19">
         <v>28</v>
@@ -10150,25 +10153,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" s="19">
         <v>29</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" s="19">
         <v>29</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" s="19">
         <v>29</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H30" s="19">
         <v>29</v>
@@ -10176,25 +10179,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="19">
         <v>30</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D31" s="19">
         <v>30</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" s="19">
         <v>30</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" s="19">
         <v>30</v>
@@ -10202,25 +10205,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="19">
         <v>31</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="19">
         <v>31</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="19">
         <v>31</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H32" s="19">
         <v>31</v>
@@ -10228,25 +10231,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="19">
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D33" s="19">
         <v>32</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F33" s="19">
         <v>32</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H33" s="19">
         <v>32</v>
@@ -10254,25 +10257,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="19">
         <v>33</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D34" s="19">
         <v>33</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="19">
         <v>33</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H34" s="19">
         <v>33</v>
@@ -10280,25 +10283,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="19">
         <v>34</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="19">
         <v>34</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F35" s="19">
         <v>34</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="19">
         <v>34</v>
@@ -10306,25 +10309,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="19">
         <v>35</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" s="19">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="19">
         <v>35</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H36" s="19">
         <v>35</v>
@@ -10332,25 +10335,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="19">
         <v>36</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D37" s="19">
         <v>36</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="19">
         <v>36</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H37" s="19">
         <v>36</v>
@@ -10358,25 +10361,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="19">
         <v>37</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="19">
         <v>37</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F38" s="19">
         <v>37</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" s="19">
         <v>37</v>
@@ -10384,25 +10387,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" s="19">
         <v>38</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="19">
         <v>38</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39" s="19">
         <v>38</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H39" s="19">
         <v>38</v>
@@ -10410,25 +10413,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="19">
         <v>39</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" s="19">
         <v>39</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F40" s="19">
         <v>39</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H40" s="19">
         <v>39</v>
@@ -10436,25 +10439,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="19">
         <v>40</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="19">
         <v>40</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F41" s="19">
         <v>40</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H41" s="19">
         <v>40</v>
@@ -10462,25 +10465,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="19">
         <v>41</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42" s="19">
         <v>41</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F42" s="19">
         <v>41</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H42" s="19">
         <v>41</v>
@@ -10488,25 +10491,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B43" s="19">
         <v>42</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="19">
         <v>42</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F43" s="19">
         <v>42</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H43" s="19">
         <v>42</v>
@@ -10514,25 +10517,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" s="19">
         <v>43</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44" s="19">
         <v>43</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F44" s="19">
         <v>43</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" s="19">
         <v>43</v>
@@ -10540,25 +10543,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B45" s="19">
         <v>44</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D45" s="19">
         <v>44</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F45" s="19">
         <v>44</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H45" s="19">
         <v>44</v>
@@ -10592,39 +10595,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="19">
         <v>1</v>
@@ -10632,25 +10635,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="19">
         <v>2</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="19">
         <v>2</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="19">
         <v>2</v>
@@ -10658,25 +10661,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="19">
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="19">
         <v>3</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="19">
         <v>3</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="19">
         <v>3</v>
@@ -10684,25 +10687,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19">
         <v>4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="19">
         <v>4</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="19">
         <v>4</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="19">
         <v>4</v>
@@ -10710,25 +10713,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="19">
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="19">
         <v>5</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="19">
         <v>5</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="19">
         <v>5</v>
@@ -10736,25 +10739,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="19">
         <v>6</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="19">
         <v>6</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="19">
         <v>6</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="19">
         <v>6</v>
@@ -10762,25 +10765,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="19">
         <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="19">
         <v>7</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="19">
         <v>7</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="19">
         <v>7</v>
@@ -10788,25 +10791,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="19">
         <v>8</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="19">
         <v>8</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="19">
         <v>8</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="19">
         <v>8</v>
@@ -10814,25 +10817,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="19">
         <v>9</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="19">
         <v>9</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="19">
         <v>9</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="19">
         <v>9</v>
@@ -10840,25 +10843,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="19">
         <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="19">
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="19">
         <v>10</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" s="19">
         <v>10</v>
@@ -10866,25 +10869,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="19">
         <v>11</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="19">
         <v>11</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="19">
         <v>11</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="19">
         <v>11</v>
@@ -10892,25 +10895,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="19">
         <v>12</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="19">
         <v>12</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="19">
         <v>12</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="19">
         <v>12</v>
@@ -10918,25 +10921,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="19">
         <v>13</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="19">
         <v>13</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="19">
         <v>13</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="19">
         <v>13</v>
@@ -10944,25 +10947,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="19">
         <v>14</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="19">
         <v>14</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="19">
         <v>14</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="19">
         <v>14</v>
@@ -10970,25 +10973,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="19">
         <v>15</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="19">
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="19">
         <v>15</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" s="19">
         <v>15</v>
@@ -10996,25 +10999,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="19">
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="19">
         <v>16</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="19">
         <v>16</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="19">
         <v>16</v>
@@ -11022,25 +11025,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="19">
         <v>17</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="19">
         <v>17</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="19">
         <v>17</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="19">
         <v>17</v>
@@ -11048,25 +11051,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="19">
         <v>18</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="19">
         <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="19">
         <v>18</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="19">
         <v>18</v>
@@ -11074,25 +11077,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="19">
         <v>19</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="19">
         <v>19</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="19">
         <v>19</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="19">
         <v>19</v>
@@ -11100,25 +11103,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="19">
         <v>20</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="19">
         <v>20</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="19">
         <v>20</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="19">
         <v>20</v>
@@ -11126,25 +11129,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="19">
         <v>21</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="19">
         <v>21</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="19">
         <v>21</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="19">
         <v>21</v>
@@ -11152,25 +11155,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="19">
         <v>22</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="19">
         <v>22</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="19">
         <v>22</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="19">
         <v>22</v>
@@ -11178,25 +11181,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="19">
         <v>23</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="19">
         <v>23</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="19">
         <v>23</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="19">
         <v>23</v>
@@ -11204,25 +11207,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="19">
         <v>24</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="19">
         <v>24</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="19">
         <v>24</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="19">
         <v>24</v>
@@ -11230,25 +11233,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="19">
         <v>25</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="19">
         <v>25</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="19">
         <v>25</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" s="19">
         <v>25</v>
@@ -11256,25 +11259,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="19">
         <v>26</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="19">
         <v>26</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="19">
         <v>26</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="19">
         <v>26</v>
@@ -11282,25 +11285,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="19">
         <v>27</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="19">
         <v>27</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="19">
         <v>27</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="19">
         <v>27</v>
@@ -11308,25 +11311,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="19">
         <v>28</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="19">
         <v>28</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="19">
         <v>28</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H29" s="19">
         <v>28</v>
@@ -11334,25 +11337,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="19">
         <v>29</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="19">
         <v>29</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="19">
         <v>29</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="19">
         <v>29</v>
@@ -11360,25 +11363,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="19">
         <v>30</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="19">
         <v>30</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" s="19">
         <v>30</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="19">
         <v>30</v>
@@ -11386,25 +11389,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="19">
         <v>31</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="19">
         <v>31</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="19">
         <v>31</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32" s="19">
         <v>31</v>
@@ -11412,25 +11415,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="19">
         <v>32</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="19">
         <v>32</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="19">
         <v>32</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" s="19">
         <v>32</v>
@@ -11438,25 +11441,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="19">
         <v>33</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="19">
         <v>33</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="19">
         <v>33</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="19">
         <v>33</v>
@@ -11464,25 +11467,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="19">
         <v>34</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="19">
         <v>34</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="19">
         <v>34</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" s="19">
         <v>34</v>
@@ -11490,25 +11493,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="19">
         <v>35</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="19">
         <v>35</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="19">
         <v>35</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="19">
         <v>35</v>
@@ -11516,25 +11519,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="19">
         <v>36</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="19">
         <v>36</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="19">
         <v>36</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="19">
         <v>36</v>
@@ -11542,25 +11545,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="19">
         <v>37</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="19">
         <v>37</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" s="19">
         <v>37</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H38" s="19">
         <v>37</v>
@@ -11568,25 +11571,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="19">
         <v>38</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="19">
         <v>38</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="19">
         <v>38</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H39" s="19">
         <v>38</v>
@@ -11594,25 +11597,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="19">
         <v>39</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="19">
         <v>39</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="19">
         <v>39</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" s="19">
         <v>39</v>
@@ -11620,25 +11623,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="19">
         <v>40</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="19">
         <v>40</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="19">
         <v>40</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H41" s="19">
         <v>40</v>
@@ -11646,25 +11649,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="19">
         <v>41</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="19">
         <v>41</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="19">
         <v>41</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" s="19">
         <v>41</v>
@@ -11672,25 +11675,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="19">
         <v>42</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="19">
         <v>42</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="19">
         <v>42</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" s="19">
         <v>42</v>
@@ -11698,25 +11701,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="19">
         <v>43</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="19">
         <v>43</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" s="19">
         <v>43</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H44" s="19">
         <v>43</v>
@@ -11724,25 +11727,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="19">
         <v>44</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="19">
         <v>44</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="19">
         <v>44</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45" s="19">
         <v>44</v>
@@ -11750,25 +11753,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="19">
         <v>45</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="19">
         <v>45</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="19">
         <v>45</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H46" s="19">
         <v>45</v>
@@ -11776,25 +11779,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="19">
         <v>46</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="19">
         <v>46</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47" s="19">
         <v>46</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="19">
         <v>46</v>
@@ -11802,25 +11805,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="19">
         <v>47</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="19">
         <v>47</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="19">
         <v>47</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H48" s="19">
         <v>47</v>
@@ -11828,25 +11831,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="19">
         <v>48</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="19">
         <v>48</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="19">
         <v>48</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="19">
         <v>48</v>
@@ -11854,25 +11857,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="19">
         <v>49</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="19">
         <v>49</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F50" s="19">
         <v>49</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H50" s="19">
         <v>49</v>
@@ -11880,25 +11883,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="19">
         <v>50</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="19">
         <v>50</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="19">
         <v>50</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H51" s="19">
         <v>50</v>
@@ -11906,25 +11909,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="19">
         <v>51</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="19">
         <v>51</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="19">
         <v>51</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H52" s="19">
         <v>51</v>
@@ -11932,25 +11935,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="19">
         <v>52</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="19">
         <v>52</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="19">
         <v>52</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53" s="19">
         <v>52</v>
@@ -11958,25 +11961,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="19">
         <v>53</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="19">
         <v>53</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="19">
         <v>53</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" s="19">
         <v>53</v>
@@ -11984,25 +11987,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" s="19">
         <v>54</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="19">
         <v>54</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F55" s="19">
         <v>54</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H55" s="19">
         <v>54</v>
@@ -12010,25 +12013,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" s="19">
         <v>55</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="19">
         <v>55</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F56" s="19">
         <v>55</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H56" s="19">
         <v>55</v>
@@ -12036,25 +12039,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="19">
         <v>56</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="19">
         <v>56</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57" s="19">
         <v>56</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H57" s="19">
         <v>56</v>
@@ -12062,25 +12065,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="19">
         <v>57</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="19">
         <v>57</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" s="19">
         <v>57</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H58" s="19">
         <v>57</v>
@@ -12088,25 +12091,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" s="19">
         <v>58</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="19">
         <v>58</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F59" s="19">
         <v>58</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H59" s="19">
         <v>58</v>
@@ -12114,25 +12117,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="19">
         <v>59</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D60" s="19">
         <v>59</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F60" s="19">
         <v>59</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" s="19">
         <v>59</v>
@@ -12140,25 +12143,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" s="19">
         <v>60</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="19">
         <v>60</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F61" s="19">
         <v>60</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61" s="19">
         <v>60</v>
@@ -12166,25 +12169,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="19">
         <v>61</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="19">
         <v>61</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F62" s="19">
         <v>61</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H62" s="19">
         <v>61</v>
@@ -12192,25 +12195,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="19">
         <v>62</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="19">
         <v>62</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F63" s="19">
         <v>62</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" s="19">
         <v>62</v>
@@ -12218,25 +12221,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="19">
         <v>63</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" s="19">
         <v>63</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" s="19">
         <v>63</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H64" s="19">
         <v>63</v>
@@ -12244,25 +12247,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="19">
         <v>64</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D65" s="19">
         <v>64</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F65" s="19">
         <v>64</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H65" s="19">
         <v>64</v>
@@ -12270,25 +12273,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="19">
         <v>65</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="19">
         <v>65</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F66" s="19">
         <v>65</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H66" s="19">
         <v>65</v>
@@ -12296,25 +12299,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="19">
         <v>66</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="19">
         <v>66</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F67" s="19">
         <v>66</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H67" s="19">
         <v>66</v>
@@ -12322,25 +12325,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" s="19">
         <v>67</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D68" s="19">
         <v>67</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F68" s="19">
         <v>67</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H68" s="19">
         <v>67</v>
@@ -12348,25 +12351,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="19">
         <v>68</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" s="19">
         <v>68</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F69" s="19">
         <v>68</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H69" s="19">
         <v>68</v>
@@ -12374,25 +12377,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="19">
         <v>69</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" s="19">
         <v>69</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F70" s="19">
         <v>69</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H70" s="19">
         <v>69</v>
@@ -12400,25 +12403,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B71" s="19">
         <v>70</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="19">
         <v>70</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F71" s="19">
         <v>70</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71" s="19">
         <v>70</v>
@@ -12426,25 +12429,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72" s="19">
         <v>71</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="19">
         <v>71</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F72" s="19">
         <v>71</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H72" s="19">
         <v>71</v>
@@ -12452,25 +12455,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="19">
         <v>72</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D73" s="19">
         <v>72</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" s="19">
         <v>72</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H73" s="19">
         <v>72</v>
@@ -12478,25 +12481,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" s="19">
         <v>73</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="19">
         <v>73</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F74" s="19">
         <v>73</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H74" s="19">
         <v>73</v>
@@ -12504,25 +12507,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="19">
         <v>74</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D75" s="19">
         <v>74</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F75" s="19">
         <v>74</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H75" s="19">
         <v>74</v>
@@ -12530,25 +12533,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" s="19">
         <v>75</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D76" s="19">
         <v>75</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F76" s="19">
         <v>75</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" s="19">
         <v>75</v>
@@ -12556,25 +12559,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="19">
         <v>76</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77" s="19">
         <v>76</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F77" s="19">
         <v>76</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H77" s="19">
         <v>76</v>
@@ -12582,25 +12585,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="19">
         <v>77</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D78" s="19">
         <v>77</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F78" s="19">
         <v>77</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H78" s="19">
         <v>77</v>
@@ -12608,25 +12611,25 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" s="19">
         <v>78</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="19">
         <v>78</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F79" s="19">
         <v>78</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H79" s="19">
         <v>78</v>
@@ -12634,25 +12637,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" s="19">
         <v>79</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D80" s="19">
         <v>79</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F80" s="19">
         <v>79</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H80" s="19">
         <v>79</v>
@@ -12660,25 +12663,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="19">
         <v>80</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D81" s="19">
         <v>80</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F81" s="19">
         <v>80</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81" s="19">
         <v>80</v>
@@ -12686,25 +12689,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="19">
         <v>81</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" s="19">
         <v>81</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" s="19">
         <v>81</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H82" s="19">
         <v>81</v>
@@ -12712,25 +12715,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="19">
         <v>82</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D83" s="19">
         <v>82</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F83" s="19">
         <v>82</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H83" s="19">
         <v>82</v>
@@ -12738,25 +12741,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="19">
         <v>83</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="19">
         <v>83</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F84" s="19">
         <v>83</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H84" s="19">
         <v>83</v>
@@ -12764,25 +12767,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" s="19">
         <v>84</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="19">
         <v>84</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F85" s="19">
         <v>84</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H85" s="19">
         <v>84</v>
@@ -12790,25 +12793,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="19">
         <v>85</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="19">
         <v>85</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="19">
         <v>85</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H86" s="19">
         <v>85</v>
@@ -12816,25 +12819,25 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="19">
         <v>86</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D87" s="19">
         <v>86</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F87" s="19">
         <v>86</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87" s="19">
         <v>86</v>
@@ -12842,25 +12845,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B88" s="19">
         <v>87</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D88" s="19">
         <v>87</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F88" s="19">
         <v>87</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H88" s="19">
         <v>87</v>
@@ -12868,25 +12871,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="19">
         <v>88</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="19">
         <v>88</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F89" s="19">
         <v>88</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H89" s="19">
         <v>88</v>
@@ -12894,25 +12897,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B90" s="19">
         <v>89</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" s="19">
         <v>89</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F90" s="19">
         <v>89</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H90" s="19">
         <v>89</v>
@@ -12920,25 +12923,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91" s="19">
         <v>90</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D91" s="19">
         <v>90</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F91" s="19">
         <v>90</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91" s="19">
         <v>90</v>
@@ -12946,25 +12949,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="19">
         <v>91</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" s="19">
         <v>91</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F92" s="19">
         <v>91</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H92" s="19">
         <v>91</v>
@@ -12972,25 +12975,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" s="19">
         <v>92</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D93" s="19">
         <v>92</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F93" s="19">
         <v>92</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="19">
         <v>92</v>
@@ -12998,25 +13001,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B94" s="19">
         <v>93</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94" s="19">
         <v>93</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F94" s="19">
         <v>93</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H94" s="19">
         <v>93</v>
@@ -13024,25 +13027,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="19">
         <v>94</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D95" s="19">
         <v>94</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F95" s="19">
         <v>94</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H95" s="19">
         <v>94</v>
@@ -13050,25 +13053,25 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" s="19">
         <v>95</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D96" s="19">
         <v>95</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F96" s="19">
         <v>95</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H96" s="19">
         <v>95</v>
@@ -13076,25 +13079,25 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="19">
         <v>96</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D97" s="19">
         <v>96</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F97" s="19">
         <v>96</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97" s="19">
         <v>96</v>
@@ -13102,25 +13105,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B98" s="19">
         <v>97</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D98" s="19">
         <v>97</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F98" s="19">
         <v>97</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H98" s="19">
         <v>97</v>
@@ -13128,25 +13131,25 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" s="19">
         <v>98</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" s="19">
         <v>98</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F99" s="19">
         <v>98</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H99" s="19">
         <v>98</v>
@@ -13154,25 +13157,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" s="19">
         <v>99</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D100" s="19">
         <v>99</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F100" s="19">
         <v>99</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H100" s="19">
         <v>99</v>
@@ -13180,25 +13183,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B101" s="19">
         <v>100</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D101" s="19">
         <v>100</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F101" s="19">
         <v>100</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H101" s="19">
         <v>100</v>
@@ -13206,25 +13209,25 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="19">
         <v>101</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D102" s="19">
         <v>101</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F102" s="19">
         <v>101</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H102" s="19">
         <v>101</v>
@@ -13232,25 +13235,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="19">
         <v>102</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D103" s="19">
         <v>102</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F103" s="19">
         <v>102</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H103" s="19">
         <v>102</v>
@@ -13258,25 +13261,25 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B104" s="19">
         <v>103</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D104" s="19">
         <v>103</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F104" s="19">
         <v>103</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H104" s="19">
         <v>103</v>
@@ -13284,25 +13287,25 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B105" s="19">
         <v>104</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D105" s="19">
         <v>104</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F105" s="19">
         <v>104</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H105" s="19">
         <v>104</v>
@@ -13310,25 +13313,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="19">
         <v>105</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D106" s="19">
         <v>105</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F106" s="19">
         <v>105</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H106" s="19">
         <v>105</v>
@@ -13336,25 +13339,25 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B107" s="19">
         <v>106</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D107" s="19">
         <v>106</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F107" s="19">
         <v>106</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H107" s="19">
         <v>106</v>
@@ -13362,25 +13365,25 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B108" s="19">
         <v>107</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D108" s="19">
         <v>107</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F108" s="19">
         <v>107</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H108" s="19">
         <v>107</v>
@@ -13388,25 +13391,25 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="19">
         <v>108</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D109" s="19">
         <v>108</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F109" s="19">
         <v>108</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H109" s="19">
         <v>108</v>
@@ -13414,25 +13417,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" s="19">
         <v>109</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" s="19">
         <v>109</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F110" s="19">
         <v>109</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H110" s="19">
         <v>109</v>
@@ -13440,25 +13443,25 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111" s="19">
         <v>110</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D111" s="19">
         <v>110</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F111" s="19">
         <v>110</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H111" s="19">
         <v>110</v>
@@ -13466,25 +13469,25 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="19">
         <v>111</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D112" s="19">
         <v>111</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F112" s="19">
         <v>111</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H112" s="19">
         <v>111</v>
@@ -13492,25 +13495,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="19">
         <v>112</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D113" s="19">
         <v>112</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F113" s="19">
         <v>112</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H113" s="19">
         <v>112</v>
@@ -13518,25 +13521,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" s="19">
         <v>113</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D114" s="19">
         <v>113</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F114" s="19">
         <v>113</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H114" s="19">
         <v>113</v>
@@ -13544,25 +13547,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B115" s="19">
         <v>114</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D115" s="19">
         <v>114</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F115" s="19">
         <v>114</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H115" s="19">
         <v>114</v>
@@ -13570,25 +13573,25 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="19">
         <v>115</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D116" s="19">
         <v>115</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F116" s="19">
         <v>115</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H116" s="19">
         <v>115</v>
@@ -13596,25 +13599,25 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117" s="19">
         <v>116</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D117" s="19">
         <v>116</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F117" s="19">
         <v>116</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H117" s="19">
         <v>116</v>
@@ -13622,25 +13625,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B118" s="19">
         <v>117</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D118" s="19">
         <v>117</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F118" s="19">
         <v>117</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118" s="19">
         <v>117</v>
@@ -13648,25 +13651,25 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="19">
         <v>118</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D119" s="19">
         <v>118</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F119" s="19">
         <v>118</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H119" s="19">
         <v>118</v>
@@ -13674,25 +13677,25 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B120" s="19">
         <v>119</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D120" s="19">
         <v>119</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F120" s="19">
         <v>119</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H120" s="19">
         <v>119</v>
@@ -13700,25 +13703,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B121" s="19">
         <v>120</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D121" s="19">
         <v>120</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F121" s="19">
         <v>120</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H121" s="19">
         <v>120</v>
@@ -13726,25 +13729,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B122" s="19">
         <v>121</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D122" s="19">
         <v>121</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F122" s="19">
         <v>121</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H122" s="19">
         <v>121</v>
@@ -13752,25 +13755,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B123" s="19">
         <v>122</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" s="19">
         <v>122</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F123" s="19">
         <v>122</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H123" s="19">
         <v>122</v>
@@ -13778,25 +13781,25 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" s="19">
         <v>123</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D124" s="19">
         <v>123</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F124" s="19">
         <v>123</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H124" s="19">
         <v>123</v>
@@ -13804,25 +13807,25 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B125" s="19">
         <v>124</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" s="19">
         <v>124</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F125" s="19">
         <v>124</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H125" s="19">
         <v>124</v>
@@ -13830,25 +13833,25 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B126" s="19">
         <v>125</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D126" s="19">
         <v>125</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F126" s="19">
         <v>125</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H126" s="19">
         <v>125</v>
@@ -13856,25 +13859,25 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B127" s="19">
         <v>126</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D127" s="19">
         <v>126</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F127" s="19">
         <v>126</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H127" s="19">
         <v>126</v>
@@ -13882,25 +13885,25 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" s="19">
         <v>127</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D128" s="19">
         <v>127</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F128" s="19">
         <v>127</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H128" s="19">
         <v>127</v>
@@ -13908,25 +13911,25 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" s="19">
         <v>128</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D129" s="19">
         <v>128</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F129" s="19">
         <v>128</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H129" s="19">
         <v>128</v>
@@ -13934,25 +13937,25 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B130" s="19">
         <v>129</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130" s="19">
         <v>129</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F130" s="19">
         <v>129</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H130" s="19">
         <v>129</v>
@@ -13960,25 +13963,25 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="19">
         <v>130</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D131" s="19">
         <v>130</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F131" s="19">
         <v>130</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H131" s="19">
         <v>130</v>
@@ -13986,25 +13989,25 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B132" s="19">
         <v>131</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132" s="19">
         <v>131</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F132" s="19">
         <v>131</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H132" s="19">
         <v>131</v>
@@ -14012,25 +14015,25 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B133" s="19">
         <v>132</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D133" s="19">
         <v>132</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F133" s="19">
         <v>132</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H133" s="19">
         <v>132</v>
@@ -14038,25 +14041,25 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134" s="19">
         <v>133</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" s="19">
         <v>133</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F134" s="19">
         <v>133</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H134" s="19">
         <v>133</v>
